--- a/vragenbank/questions.xlsx
+++ b/vragenbank/questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5507553\Documents\GitHub\LesboekOekraiensNederlandsVragen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\5507553\Documents\GitHub\LesboekOekraiensNederlandsVragen\vragenbank\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134215E5-651E-4854-BBED-4928E0B0CBE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BDA7551-7125-4D9B-A6FB-CA788C2CD715}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="21600" windowHeight="11385" xr2:uid="{2EB176D6-AFE9-4781-A748-FD52011ECB2D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2EB176D6-AFE9-4781-A748-FD52011ECB2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>question</t>
   </si>
@@ -90,13 +90,43 @@
   </si>
   <si>
     <t>C. Mars</t>
+  </si>
+  <si>
+    <t>Vraag 6</t>
+  </si>
+  <si>
+    <t>a; b; c; d</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Vraag 7</t>
+  </si>
+  <si>
+    <t>Vraag 8</t>
+  </si>
+  <si>
+    <t>Vraag 9</t>
+  </si>
+  <si>
+    <t>Vraag 10</t>
+  </si>
+  <si>
+    <t>Vraag 11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +147,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -132,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -275,11 +311,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD9D9E3"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD9D9E3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -306,6 +384,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -622,15 +712,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B9D21F-EE13-41D6-977C-09172BE92C85}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="34.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
@@ -652,7 +742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -663,7 +753,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -674,7 +764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="84.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -685,7 +775,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -696,7 +786,74 @@
         <v>17</v>
       </c>
     </row>
+    <row r="7" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
